--- a/Work/ファイル整理ツリー/ファイル整理ツリー.xlsx
+++ b/Work/ファイル整理ツリー/ファイル整理ツリー.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class\Desktop\sakurara_other\pepe_other_file\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class\Desktop\sakurara_other\pepe_other_file\Work\ファイル整理ツリー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A965FFC-5FA0-4CA9-874A-AF92E68663A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7EEE75-9846-4A4B-9AC4-829E3EB185B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="799" xr2:uid="{AF130286-64E7-4C6B-84DD-C9CC3619F221}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="799" firstSheet="8" activeTab="8" xr2:uid="{AF130286-64E7-4C6B-84DD-C9CC3619F221}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="8" r:id="rId1"/>
@@ -3990,7 +3990,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>166370</xdr:rowOff>
     </xdr:to>
@@ -4007,8 +4007,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5686425" y="2623820"/>
-          <a:ext cx="704850" cy="742950"/>
+          <a:off x="5889625" y="2728595"/>
+          <a:ext cx="787400" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -4044,7 +4044,23 @@
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>userinfo</a:t>
+            <a:t>user</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>s_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>info</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
             <a:effectLst/>
@@ -5500,7 +5516,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="429658" y="171221"/>
-            <a:ext cx="704090" cy="742236"/>
+            <a:ext cx="774731" cy="742236"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartMagneticDisk">
             <a:avLst/>
@@ -5536,7 +5552,23 @@
                 <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>userinfo</a:t>
+              <a:t>user</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1050" kern="100">
+                <a:effectLst/>
+                <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>s_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" kern="100">
+                <a:effectLst/>
+                <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>info</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
               <a:effectLst/>
@@ -7975,7 +8007,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="429658" y="171221"/>
-            <a:ext cx="704090" cy="742236"/>
+            <a:ext cx="767461" cy="742236"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartMagneticDisk">
             <a:avLst/>
@@ -8011,7 +8043,23 @@
                 <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>userinfo</a:t>
+              <a:t>user</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1050" kern="100">
+                <a:effectLst/>
+                <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>s_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" kern="100">
+                <a:effectLst/>
+                <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>info</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
               <a:effectLst/>
@@ -9927,15 +9975,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>186055</xdr:colOff>
+      <xdr:colOff>138430</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>169545</xdr:rowOff>
+      <xdr:rowOff>165735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>229235</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>225425</xdr:rowOff>
+      <xdr:rowOff>191135</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9950,8 +9998,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4148455" y="3141345"/>
-          <a:ext cx="703580" cy="741680"/>
+          <a:off x="4253230" y="3261360"/>
+          <a:ext cx="795020" cy="739775"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -9987,7 +10035,23 @@
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>userinfo</a:t>
+            <a:t>user</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>s_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>info</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
             <a:effectLst/>
@@ -10002,15 +10066,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>309245</xdr:colOff>
+      <xdr:colOff>298767</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>173990</xdr:rowOff>
+      <xdr:rowOff>165735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1270</xdr:rowOff>
+      <xdr:colOff>341947</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>231140</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10025,8 +10089,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4932045" y="3145790"/>
-          <a:ext cx="703580" cy="741680"/>
+          <a:off x="5099367" y="3261360"/>
+          <a:ext cx="728980" cy="779780"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -10062,7 +10126,23 @@
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>catsinfo</a:t>
+            <a:t>cats</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>info</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
             <a:effectLst/>
@@ -10100,8 +10180,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5676265" y="3137535"/>
-          <a:ext cx="703580" cy="741680"/>
+          <a:off x="5879465" y="3261360"/>
+          <a:ext cx="728980" cy="770255"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -11862,7 +11942,23 @@
                 <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>catsinfo</a:t>
+              <a:t>cats</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1050" kern="100">
+                <a:effectLst/>
+                <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" kern="100">
+                <a:effectLst/>
+                <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>info</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
               <a:effectLst/>
@@ -14363,7 +14459,23 @@
                       <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
                       <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     </a:rPr>
-                    <a:t>catsinfo</a:t>
+                    <a:t>cats</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ja-JP" sz="1050" kern="100">
+                      <a:effectLst/>
+                      <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <a:t>_</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1050" kern="100">
+                      <a:effectLst/>
+                      <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <a:t>info</a:t>
                   </a:r>
                   <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
                     <a:effectLst/>
@@ -18337,7 +18449,7 @@
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>catsinfo</a:t>
+            <a:t>cats_info</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
             <a:effectLst/>
@@ -19610,7 +19722,7 @@
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>catsinfo</a:t>
+            <a:t>cats_info</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
             <a:effectLst/>
@@ -20177,7 +20289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4805AC35-603E-4391-87A6-FC4DA97BFC6E}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -20676,7 +20788,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -20805,7 +20917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E43787-18E5-4111-B269-45C79865F658}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:A20"/>
     </sheetView>
   </sheetViews>
@@ -20980,7 +21092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E064EE-18A5-47FA-A785-C22A6759C62E}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -21132,7 +21244,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42743AAA-ACEA-40B8-A1C3-AFEAFD11A2D2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -21147,7 +21261,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5895C592-00D4-42C8-9723-E9A74F7F42D1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -21161,7 +21277,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18DCC95-039C-4289-B234-4140DEAAEDA7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -21175,8 +21293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BBFE5A-B198-4760-BAB2-677CFC1F4A0C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -21191,7 +21309,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B532659-9E4A-472F-83BD-A68C39CE5409}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -21206,7 +21326,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="L11" sqref="L11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -21221,7 +21341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDE4A82-CECA-4591-A904-16A7F2C3FAA0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>

--- a/Work/ファイル整理ツリー/ファイル整理ツリー.xlsx
+++ b/Work/ファイル整理ツリー/ファイル整理ツリー.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class\Desktop\sakurara_other\pepe_other_file\Work\ファイル整理ツリー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reiko\Desktop\sakura_other\pepe_other_file\Work\ファイル整理ツリー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E998BDB-CCA5-4AED-9EDA-3C203DAF62E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B58250-9FB7-4B30-B601-B2ED8B09769E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="799" xr2:uid="{AF130286-64E7-4C6B-84DD-C9CC3619F221}"/>
+    <workbookView xWindow="7290" yWindow="30" windowWidth="10860" windowHeight="9990" tabRatio="799" xr2:uid="{AF130286-64E7-4C6B-84DD-C9CC3619F221}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="95">
   <si>
     <t>Contoroller</t>
     <phoneticPr fontId="1"/>
@@ -273,22 +273,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>Exe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SearchCat</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>doSelectCatLists</t>
   </si>
   <si>
@@ -355,12 +339,101 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>EditCat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExeDelCat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ削除</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ返信</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ送信</t>
+    <rPh sb="5" eb="7">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExeDelMessage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExeSearchCat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExeLogout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExeSendMessage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DelMessageBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MessagesDao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MessagesDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyPageDto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SendMessageBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UpdateCatBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UpdateDelCatBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mypage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,14 +453,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -537,7 +602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -580,13 +645,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -635,7 +703,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1094740" y="3368040"/>
+          <a:off x="1078865" y="3368040"/>
           <a:ext cx="57150" cy="952500"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="57150" cy="1095375"/>
@@ -816,8 +884,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1191260" y="2187575"/>
-          <a:ext cx="1304925" cy="808990"/>
+          <a:off x="1175385" y="2187575"/>
+          <a:ext cx="1282700" cy="808990"/>
           <a:chOff x="-19050" y="-35910"/>
           <a:chExt cx="1304925" cy="723265"/>
         </a:xfrm>
@@ -2158,8 +2226,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5962013" y="3872229"/>
-          <a:ext cx="1181123" cy="1042033"/>
+          <a:off x="5869938" y="3872229"/>
+          <a:ext cx="1162073" cy="1042033"/>
           <a:chOff x="-146938" y="936219"/>
           <a:chExt cx="1573339" cy="1125367"/>
         </a:xfrm>
@@ -2362,8 +2430,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1057910" y="3968115"/>
-          <a:ext cx="4126865" cy="570230"/>
+          <a:off x="1042035" y="3968115"/>
+          <a:ext cx="4063365" cy="570230"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="4126865" cy="484505"/>
         </a:xfrm>
@@ -4464,8 +4532,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6103620" y="6737350"/>
-          <a:ext cx="123372" cy="226695"/>
+          <a:off x="6030595" y="6677025"/>
+          <a:ext cx="120197" cy="226695"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="123372" cy="226785"/>
         </a:xfrm>
@@ -7852,8 +7920,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5836920" y="2259330"/>
-          <a:ext cx="123372" cy="226695"/>
+          <a:off x="5767070" y="2240280"/>
+          <a:ext cx="120197" cy="223520"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="123372" cy="226785"/>
         </a:xfrm>
@@ -8059,8 +8127,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2180590" y="1922780"/>
-          <a:ext cx="430530" cy="99060"/>
+          <a:off x="2155190" y="1906905"/>
+          <a:ext cx="424180" cy="99060"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="430624" cy="99060"/>
         </a:xfrm>
@@ -8170,8 +8238,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4518660" y="1899920"/>
-          <a:ext cx="430530" cy="99060"/>
+          <a:off x="4464685" y="1884045"/>
+          <a:ext cx="424180" cy="99060"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="430624" cy="99060"/>
         </a:xfrm>
@@ -11642,7 +11710,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5930900" y="6355080"/>
+          <a:off x="5857875" y="6297930"/>
           <a:ext cx="123372" cy="226695"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="123372" cy="226785"/>
@@ -13614,8 +13682,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="676275" y="4378960"/>
-          <a:ext cx="4139565" cy="1731010"/>
+          <a:off x="676275" y="4340860"/>
+          <a:ext cx="4139565" cy="1715135"/>
           <a:chOff x="0" y="19685"/>
           <a:chExt cx="4139565" cy="1159510"/>
         </a:xfrm>
@@ -14170,7 +14238,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3790950" y="3945505"/>
+          <a:off x="3790950" y="3910580"/>
           <a:ext cx="393700" cy="141927"/>
           <a:chOff x="0" y="110168"/>
           <a:chExt cx="393739" cy="141927"/>
@@ -14281,8 +14349,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2743200" y="2336800"/>
-          <a:ext cx="1441450" cy="1316355"/>
+          <a:off x="2743200" y="2317750"/>
+          <a:ext cx="1441450" cy="1303655"/>
           <a:chOff x="-66675" y="-19050"/>
           <a:chExt cx="1441490" cy="859764"/>
         </a:xfrm>
@@ -14612,8 +14680,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="638175" y="1993900"/>
-          <a:ext cx="1314450" cy="1047750"/>
+          <a:off x="638175" y="1978025"/>
+          <a:ext cx="1314450" cy="1038225"/>
           <a:chOff x="0" y="50265"/>
           <a:chExt cx="1314450" cy="705080"/>
         </a:xfrm>
@@ -14824,7 +14892,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5505450" y="3953646"/>
+          <a:off x="5505450" y="3918721"/>
           <a:ext cx="305435" cy="160677"/>
           <a:chOff x="0" y="99152"/>
           <a:chExt cx="786099" cy="160677"/>
@@ -15278,8 +15346,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5181600" y="2689225"/>
-          <a:ext cx="1470660" cy="981075"/>
+          <a:off x="5181600" y="2667000"/>
+          <a:ext cx="1470660" cy="971550"/>
           <a:chOff x="-85725" y="9525"/>
           <a:chExt cx="1471096" cy="638175"/>
         </a:xfrm>
@@ -15694,7 +15762,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1775460" y="3955093"/>
+          <a:off x="1775460" y="3920168"/>
           <a:ext cx="371475" cy="138188"/>
           <a:chOff x="32425" y="110168"/>
           <a:chExt cx="372110" cy="138188"/>
@@ -16384,8 +16452,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1633220" y="5172075"/>
-          <a:ext cx="617855" cy="99152"/>
+          <a:off x="1614170" y="5118100"/>
+          <a:ext cx="611505" cy="99152"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="618380" cy="99152"/>
         </a:xfrm>
@@ -18021,8 +18089,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5325110" y="5520690"/>
-          <a:ext cx="1323975" cy="1571624"/>
+          <a:off x="5261610" y="5463540"/>
+          <a:ext cx="1308100" cy="1552574"/>
           <a:chOff x="-175301" y="0"/>
           <a:chExt cx="1763662" cy="1905001"/>
         </a:xfrm>
@@ -18717,8 +18785,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="661035" y="2588260"/>
-          <a:ext cx="760095" cy="513080"/>
+          <a:off x="654685" y="2562860"/>
+          <a:ext cx="750570" cy="506730"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="760263" cy="513301"/>
         </a:xfrm>
@@ -19435,8 +19503,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="548640" y="8154035"/>
-          <a:ext cx="1651635" cy="523240"/>
+          <a:off x="542290" y="8068310"/>
+          <a:ext cx="1632585" cy="516890"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="1651635" cy="523240"/>
         </a:xfrm>
@@ -19756,8 +19824,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="786765" y="1858010"/>
-          <a:ext cx="4126865" cy="586105"/>
+          <a:off x="777240" y="1838960"/>
+          <a:ext cx="4076065" cy="579755"/>
           <a:chOff x="0" y="-167020"/>
           <a:chExt cx="4126865" cy="586120"/>
         </a:xfrm>
@@ -20661,8 +20729,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1634490" y="3150235"/>
-          <a:ext cx="284480" cy="138223"/>
+          <a:off x="1615440" y="3124835"/>
+          <a:ext cx="281305" cy="135048"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="285063" cy="138223"/>
         </a:xfrm>
@@ -21673,8 +21741,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4189730" y="3216910"/>
-          <a:ext cx="284480" cy="138223"/>
+          <a:off x="4138930" y="3188335"/>
+          <a:ext cx="281305" cy="138223"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="285063" cy="138223"/>
         </a:xfrm>
@@ -21869,8 +21937,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6168390" y="3371850"/>
-          <a:ext cx="339725" cy="1011865"/>
+          <a:off x="6095365" y="3343275"/>
+          <a:ext cx="333375" cy="1002340"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="393405" cy="1011865"/>
         </a:xfrm>
@@ -22952,8 +23020,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4297045" y="709295"/>
-          <a:ext cx="573405" cy="544033"/>
+          <a:off x="4246245" y="702945"/>
+          <a:ext cx="567055" cy="540858"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="573700" cy="544033"/>
         </a:xfrm>
@@ -23760,8 +23828,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="421005" y="5911850"/>
-          <a:ext cx="6343653" cy="1479050"/>
+          <a:off x="417830" y="5861050"/>
+          <a:ext cx="6264278" cy="1466350"/>
           <a:chOff x="-154244" y="0"/>
           <a:chExt cx="6343974" cy="1479050"/>
         </a:xfrm>
@@ -25113,8 +25181,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="889000" y="1853565"/>
-          <a:ext cx="4126865" cy="586105"/>
+          <a:off x="879475" y="1837690"/>
+          <a:ext cx="4076065" cy="582930"/>
           <a:chOff x="0" y="-167020"/>
           <a:chExt cx="4126865" cy="586120"/>
         </a:xfrm>
@@ -29570,8 +29638,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1896110" y="6811645"/>
-          <a:ext cx="430530" cy="99060"/>
+          <a:off x="1873885" y="6751320"/>
+          <a:ext cx="424180" cy="99060"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="430624" cy="99060"/>
         </a:xfrm>
@@ -29681,8 +29749,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4327525" y="6810375"/>
-          <a:ext cx="430530" cy="99060"/>
+          <a:off x="4276725" y="6750050"/>
+          <a:ext cx="424180" cy="99060"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="430624" cy="99060"/>
         </a:xfrm>
@@ -33381,8 +33449,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5861685" y="1975485"/>
-          <a:ext cx="123372" cy="226695"/>
+          <a:off x="5791835" y="1959610"/>
+          <a:ext cx="120197" cy="223520"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="123372" cy="226785"/>
         </a:xfrm>
@@ -34038,8 +34106,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1854835" y="1527175"/>
-          <a:ext cx="430530" cy="99060"/>
+          <a:off x="1832610" y="1514475"/>
+          <a:ext cx="427355" cy="99060"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="430624" cy="99060"/>
         </a:xfrm>
@@ -34149,8 +34217,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4199890" y="1487170"/>
-          <a:ext cx="430530" cy="99060"/>
+          <a:off x="4149090" y="1474470"/>
+          <a:ext cx="424180" cy="99060"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="430624" cy="99060"/>
         </a:xfrm>
@@ -35479,8 +35547,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5951220" y="3430905"/>
-          <a:ext cx="123372" cy="226695"/>
+          <a:off x="5878195" y="3402330"/>
+          <a:ext cx="123372" cy="223520"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="123372" cy="226785"/>
         </a:xfrm>
@@ -35883,8 +35951,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4455160" y="3078480"/>
-          <a:ext cx="430530" cy="99060"/>
+          <a:off x="4401185" y="3053080"/>
+          <a:ext cx="427355" cy="95885"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="430624" cy="99060"/>
         </a:xfrm>
@@ -38077,22 +38145,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4805AC35-603E-4391-87A6-FC4DA97BFC6E}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="19.58203125" customWidth="1"/>
+    <col min="5" max="5" width="17.08203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>46</v>
@@ -38116,7 +38187,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -38127,7 +38198,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>21</v>
@@ -38138,13 +38209,11 @@
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
         <v>31</v>
       </c>
@@ -38152,7 +38221,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -38164,7 +38233,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -38186,7 +38255,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -38200,7 +38269,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -38212,7 +38281,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -38222,7 +38291,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -38246,7 +38315,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -38262,7 +38331,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -38274,7 +38343,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -38286,12 +38355,12 @@
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>38</v>
@@ -38308,7 +38377,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -38320,17 +38389,19 @@
       <c r="G14" s="9"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -38340,7 +38411,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -38350,12 +38421,12 @@
       <c r="G17" s="9"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
         <v>5</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>39</v>
@@ -38372,7 +38443,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -38386,7 +38457,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -38398,311 +38469,373 @@
       <c r="G20" s="12"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8">
         <v>6</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>69</v>
+      <c r="B21" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="E22" s="9" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="10" t="s">
-        <v>74</v>
-      </c>
+      <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2">
         <v>7</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>75</v>
+      <c r="B25" s="5" t="s">
+        <v>74</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
+      <c r="C25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2">
         <v>8</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>66</v>
+      <c r="B28" s="5" t="s">
+        <v>65</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D28" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="2">
-        <v>8</v>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="9" t="s">
+        <v>20</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2">
+        <v>9</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>64</v>
+      <c r="F31" s="6" t="s">
+        <v>63</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="8"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="7"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2">
+        <v>10</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="10"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="10"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="2"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="7"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2">
+        <v>11</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="10"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="10"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="13"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" s="2"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="7"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2">
+        <v>12</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="10"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="10"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="13"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="13"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" s="2"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="7"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2">
+        <v>13</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="7"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="10"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="10"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -38713,8 +38846,13 @@
     <hyperlink ref="B13" location="MyPage!A1" display="マイページ表示" xr:uid="{02B00803-935F-4FA3-B698-F55A960B2917}"/>
     <hyperlink ref="B18" location="猫登録!A1" display="ネコちゃん登録機能" xr:uid="{ABBBAB3E-1C30-4BE7-BFDD-6D284987B3A1}"/>
     <hyperlink ref="B21" location="猫編集!A1" display="ネコちゃん編集機能" xr:uid="{DC6D7AB8-5DCF-4A92-965D-A0CC78407C81}"/>
-    <hyperlink ref="B27" location="猫検索!A1" display="ネコちゃん検索" xr:uid="{62AF8BBB-60CE-45D2-9743-2A482998F236}"/>
-    <hyperlink ref="B30" location="ネコ詳細!A1" display="ネコちゃん詳細" xr:uid="{773062DC-C014-4DBA-A612-C7E4EE5059AA}"/>
+    <hyperlink ref="B28" location="猫検索!A1" display="ネコちゃん検索" xr:uid="{62AF8BBB-60CE-45D2-9743-2A482998F236}"/>
+    <hyperlink ref="B31" location="ネコ詳細!A1" display="ネコちゃん詳細" xr:uid="{773062DC-C014-4DBA-A612-C7E4EE5059AA}"/>
+    <hyperlink ref="B25" location="ネコ情報削除!A1" display="ネコちゃん情報削除" xr:uid="{C486DBAB-39F8-4454-9A2E-0BAF26DE146D}"/>
+    <hyperlink ref="B34" location="ﾒｯｾｰｼﾞ送信!A1" display="メッセージ" xr:uid="{D77FC7DB-93A4-446D-AD14-21FC302A3BBD}"/>
+    <hyperlink ref="B37" location="ﾒｯｾｰｼﾞ削除!A1" display="メッセージ削除" xr:uid="{5CC7C0D3-F574-402D-A55E-76C3D2A008D9}"/>
+    <hyperlink ref="B40" location="ﾒｯｾｰｼﾞ返信!A1" display="メッセージ返信" xr:uid="{0A61F71E-CCB9-4145-8918-F38989D214A2}"/>
+    <hyperlink ref="B43" location="Logout!A1" display="ログアウト" xr:uid="{2ADB5258-05AD-4931-A75D-89A5008C30B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -38725,233 +38863,233 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDE4A82-CECA-4591-A904-16A7F2C3FAA0}">
   <dimension ref="A1:A220"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="73" width="3.375" customWidth="1"/>
+    <col min="1" max="73" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="32" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="37" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="38" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="39" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="40" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="41" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="42" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="43" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="44" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="45" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="46" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="47" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="48" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="49" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="50" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="51" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="52" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="53" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="54" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="55" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="56" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="57" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="58" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="59" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="60" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="61" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="62" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="63" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="64" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="65" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="66" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="67" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="68" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="69" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="70" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="71" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="72" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="73" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="74" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="75" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="76" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="77" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="78" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="79" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="80" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="81" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="82" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="83" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="84" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="85" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="86" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="87" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="88" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="89" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="90" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="91" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="92" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="93" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="94" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="95" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="96" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="97" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="98" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="99" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="100" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="101" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="102" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="103" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="104" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="105" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="106" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="107" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="108" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="109" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="110" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="112" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="113" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="114" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="115" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="116" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="117" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="118" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="119" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="120" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="121" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="122" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="123" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="124" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="125" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="126" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="127" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="128" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="129" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="130" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="131" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="132" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="133" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="134" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="135" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="136" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="137" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="138" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="139" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="140" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="141" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="142" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="143" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="144" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="145" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="146" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="147" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="148" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="149" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="150" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="151" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="152" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="153" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="154" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="155" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="156" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="158" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="160" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="161" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="162" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="163" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="164" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="165" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="166" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="167" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="168" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="169" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="170" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="171" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="172" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="173" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="174" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="175" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="176" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="177" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="178" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="179" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="180" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="181" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="182" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="183" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="184" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="185" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="186" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="187" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="188" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="189" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="190" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="191" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="192" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="193" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="194" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="195" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="196" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="197" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="198" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="199" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="200" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="201" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="202" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="203" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="204" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="205" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="206" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="207" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="208" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="209" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="210" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="211" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="212" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="213" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="214" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="215" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="216" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="217" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="218" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="219" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="220" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38963,235 +39101,233 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E78875-3266-4E89-9B40-D19E297D9C41}">
   <dimension ref="A1:A220"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="73" width="3.375" customWidth="1"/>
+    <col min="1" max="73" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="32" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="37" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="38" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="39" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="40" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="41" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="42" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="43" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="44" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="45" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="46" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="47" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="48" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="49" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="50" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="51" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="52" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="53" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="54" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="55" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="56" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="57" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="58" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="59" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="60" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="61" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="62" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="63" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="64" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="65" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="66" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="67" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="68" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="69" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="70" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="71" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="72" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="73" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="74" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="75" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="76" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="77" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="78" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="79" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="80" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="81" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="82" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="83" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="84" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="85" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="86" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="87" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="88" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="89" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="90" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="91" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="92" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="93" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="94" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="95" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="96" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="97" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="98" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="99" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="100" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="101" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="102" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="103" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="104" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="105" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="106" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="107" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="108" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="109" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="110" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="112" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="113" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="114" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="115" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="116" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="117" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="118" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="119" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="120" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="121" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="122" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="123" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="124" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="125" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="126" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="127" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="128" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="129" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="130" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="131" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="132" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="133" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="134" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="135" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="136" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="137" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="138" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="139" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="140" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="141" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="142" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="143" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="144" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="145" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="146" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="147" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="148" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="149" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="150" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="151" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="152" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="153" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="154" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="155" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="156" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="158" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="160" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="161" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="162" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="163" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="164" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="165" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="166" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="167" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="168" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="169" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="170" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="171" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="172" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="173" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="174" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="175" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="176" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="177" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="178" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="179" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="180" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="181" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="182" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="183" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="184" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="185" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="186" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="187" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="188" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="189" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="190" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="191" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="192" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="193" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="194" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="195" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="196" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="197" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="198" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="199" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="200" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="201" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="202" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="203" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="204" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="205" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="206" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="207" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="208" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="209" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="210" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="211" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="212" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="213" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="214" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="215" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="216" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="217" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="218" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="219" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="220" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39207,231 +39343,231 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="73" width="3.375" customWidth="1"/>
+    <col min="1" max="73" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="32" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="37" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="38" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="39" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="40" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="41" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="42" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="43" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="44" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="45" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="46" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="47" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="48" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="49" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="50" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="51" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="52" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="53" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="54" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="55" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="56" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="57" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="58" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="59" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="60" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="61" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="62" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="63" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="64" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="65" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="66" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="67" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="68" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="69" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="70" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="71" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="72" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="73" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="74" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="75" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="76" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="77" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="78" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="79" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="80" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="81" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="82" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="83" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="84" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="85" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="86" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="87" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="88" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="89" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="90" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="91" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="92" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="93" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="94" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="95" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="96" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="97" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="98" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="99" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="100" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="101" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="102" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="103" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="104" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="105" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="106" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="107" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="108" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="109" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="110" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="112" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="113" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="114" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="115" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="116" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="117" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="118" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="119" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="120" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="121" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="122" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="123" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="124" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="125" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="126" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="127" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="128" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="129" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="130" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="131" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="132" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="133" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="134" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="135" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="136" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="137" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="138" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="139" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="140" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="141" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="142" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="143" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="144" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="145" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="146" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="147" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="148" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="149" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="150" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="151" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="152" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="153" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="154" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="155" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="156" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="158" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="160" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="161" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="162" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="163" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="164" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="165" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="166" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="167" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="168" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="169" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="170" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="171" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="172" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="173" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="174" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="175" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="176" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="177" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="178" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="179" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="180" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="181" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="182" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="183" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="184" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="185" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="186" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="187" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="188" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="189" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="190" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="191" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="192" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="193" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="194" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="195" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="196" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="197" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="198" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="199" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="200" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="201" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="202" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="203" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="204" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="205" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="206" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="207" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="208" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="209" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="210" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="211" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="212" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="213" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="214" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="215" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="216" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="217" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="218" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="219" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="220" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39447,231 +39583,231 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="73" width="3.375" customWidth="1"/>
+    <col min="1" max="73" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="32" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="37" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="38" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="39" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="40" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="41" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="42" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="43" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="44" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="45" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="46" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="47" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="48" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="49" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="50" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="51" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="52" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="53" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="54" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="55" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="56" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="57" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="58" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="59" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="60" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="61" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="62" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="63" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="64" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="65" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="66" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="67" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="68" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="69" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="70" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="71" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="72" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="73" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="74" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="75" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="76" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="77" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="78" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="79" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="80" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="81" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="82" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="83" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="84" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="85" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="86" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="87" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="88" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="89" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="90" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="91" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="92" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="93" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="94" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="95" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="96" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="97" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="98" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="99" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="100" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="101" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="102" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="103" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="104" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="105" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="106" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="107" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="108" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="109" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="110" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="112" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="113" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="114" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="115" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="116" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="117" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="118" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="119" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="120" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="121" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="122" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="123" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="124" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="125" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="126" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="127" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="128" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="129" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="130" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="131" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="132" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="133" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="134" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="135" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="136" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="137" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="138" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="139" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="140" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="141" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="142" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="143" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="144" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="145" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="146" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="147" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="148" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="149" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="150" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="151" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="152" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="153" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="154" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="155" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="156" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="158" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="160" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="161" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="162" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="163" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="164" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="165" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="166" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="167" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="168" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="169" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="170" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="171" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="172" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="173" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="174" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="175" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="176" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="177" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="178" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="179" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="180" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="181" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="182" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="183" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="184" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="185" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="186" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="187" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="188" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="189" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="190" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="191" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="192" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="193" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="194" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="195" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="196" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="197" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="198" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="199" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="200" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="201" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="202" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="203" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="204" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="205" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="206" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="207" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="208" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="209" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="210" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="211" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="212" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="213" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="214" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="215" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="216" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="217" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="218" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="219" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="220" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39687,231 +39823,231 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="73" width="3.375" customWidth="1"/>
+    <col min="1" max="73" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="32" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="37" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="38" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="39" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="40" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="41" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="42" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="43" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="44" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="45" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="46" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="47" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="48" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="49" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="50" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="51" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="52" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="53" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="54" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="55" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="56" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="57" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="58" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="59" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="60" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="61" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="62" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="63" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="64" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="65" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="66" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="67" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="68" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="69" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="70" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="71" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="72" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="73" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="74" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="75" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="76" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="77" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="78" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="79" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="80" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="81" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="82" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="83" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="84" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="85" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="86" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="87" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="88" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="89" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="90" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="91" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="92" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="93" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="94" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="95" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="96" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="97" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="98" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="99" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="100" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="101" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="102" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="103" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="104" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="105" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="106" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="107" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="108" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="109" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="110" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="112" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="113" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="114" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="115" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="116" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="117" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="118" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="119" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="120" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="121" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="122" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="123" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="124" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="125" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="126" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="127" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="128" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="129" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="130" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="131" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="132" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="133" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="134" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="135" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="136" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="137" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="138" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="139" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="140" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="141" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="142" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="143" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="144" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="145" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="146" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="147" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="148" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="149" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="150" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="151" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="152" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="153" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="154" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="155" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="156" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="158" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="160" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="161" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="162" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="163" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="164" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="165" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="166" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="167" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="168" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="169" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="170" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="171" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="172" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="173" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="174" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="175" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="176" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="177" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="178" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="179" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="180" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="181" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="182" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="183" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="184" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="185" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="186" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="187" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="188" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="189" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="190" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="191" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="192" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="193" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="194" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="195" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="196" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="197" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="198" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="199" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="200" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="201" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="202" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="203" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="204" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="205" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="206" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="207" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="208" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="209" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="210" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="211" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="212" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="213" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="214" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="215" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="216" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="217" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="218" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="219" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="220" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39927,97 +40063,97 @@
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -40042,231 +40178,231 @@
       <selection sqref="A1:XFD220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="73" width="3.375" customWidth="1"/>
+    <col min="1" max="73" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="32" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="37" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="38" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="39" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="40" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="41" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="42" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="43" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="44" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="45" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="46" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="47" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="48" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="49" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="50" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="51" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="52" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="53" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="54" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="55" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="56" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="57" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="58" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="59" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="60" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="61" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="62" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="63" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="64" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="65" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="66" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="67" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="68" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="69" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="70" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="71" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="72" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="73" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="74" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="75" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="76" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="77" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="78" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="79" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="80" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="81" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="82" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="83" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="84" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="85" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="86" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="87" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="88" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="89" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="90" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="91" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="92" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="93" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="94" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="95" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="96" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="97" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="98" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="99" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="100" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="101" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="102" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="103" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="104" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="105" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="106" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="107" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="108" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="109" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="110" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="112" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="113" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="114" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="115" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="116" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="117" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="118" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="119" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="120" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="121" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="122" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="123" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="124" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="125" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="126" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="127" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="128" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="129" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="130" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="131" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="132" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="133" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="134" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="135" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="136" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="137" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="138" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="139" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="140" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="141" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="142" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="143" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="144" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="145" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="146" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="147" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="148" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="149" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="150" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="151" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="152" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="153" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="154" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="155" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="156" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="158" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="160" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="161" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="162" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="163" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="164" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="165" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="166" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="167" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="168" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="169" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="170" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="171" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="172" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="173" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="174" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="175" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="176" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="177" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="178" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="179" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="180" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="181" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="182" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="183" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="184" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="185" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="186" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="187" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="188" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="189" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="190" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="191" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="192" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="193" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="194" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="195" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="196" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="197" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="198" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="199" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="200" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="201" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="202" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="203" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="204" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="205" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="206" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="207" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="208" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="209" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="210" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="211" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="212" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="213" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="214" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="215" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="216" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="217" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="218" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="219" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="220" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40281,87 +40417,87 @@
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -40380,64 +40516,64 @@
       <selection activeCell="A17" sqref="A17:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -40456,16 +40592,16 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.875" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.375" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -40476,7 +40612,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -40487,7 +40623,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -40495,12 +40631,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
         <v>21</v>
       </c>
@@ -40508,13 +40644,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -40522,13 +40658,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1"/>
       <c r="C10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -40536,7 +40672,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1"/>
       <c r="C12" t="s">
         <v>28</v>
@@ -40545,7 +40681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -40553,17 +40689,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -40572,7 +40708,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -40592,38 +40728,38 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="86" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="86" width="2.58203125" customWidth="1"/>
     <col min="87" max="105" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="23" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="24" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="25" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40637,37 +40773,37 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="98" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40682,100 +40818,100 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="92" width="3.375" customWidth="1"/>
+    <col min="1" max="92" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="23" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="24" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="25" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="32" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="33" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="34" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="37" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="38" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="39" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="40" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="41" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="42" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="43" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="44" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="45" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="46" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="47" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="48" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="49" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="50" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="51" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="52" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="53" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="54" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="55" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="56" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="57" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="58" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="59" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="60" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="61" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="62" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="63" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="64" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="65" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="66" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="67" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="68" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="69" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="70" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="71" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="72" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="73" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="74" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="75" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="76" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="77" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="78" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="79" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="80" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="81" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="82" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="83" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="84" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="85" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="86" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="87" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="88" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="89" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40787,233 +40923,233 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3ECF25-B487-468C-A8B0-2075A833DDC2}">
   <dimension ref="A1:A220"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="73" width="3.375" customWidth="1"/>
+    <col min="1" max="73" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="32" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="37" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="38" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="39" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="40" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="41" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="42" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="43" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="44" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="45" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="46" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="47" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="48" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="49" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="50" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="51" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="52" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="53" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="54" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="55" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="56" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="57" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="58" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="59" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="60" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="61" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="62" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="63" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="64" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="65" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="66" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="67" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="68" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="69" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="70" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="71" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="72" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="73" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="74" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="75" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="76" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="77" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="78" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="79" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="80" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="81" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="82" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="83" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="84" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="85" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="86" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="87" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="88" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="89" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="90" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="91" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="92" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="93" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="94" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="95" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="96" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="97" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="98" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="99" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="100" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="101" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="102" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="103" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="104" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="105" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="106" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="107" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="108" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="109" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="110" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="112" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="113" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="114" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="115" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="116" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="117" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="118" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="119" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="120" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="121" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="122" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="123" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="124" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="125" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="126" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="127" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="128" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="129" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="130" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="131" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="132" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="133" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="134" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="135" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="136" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="137" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="138" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="139" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="140" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="141" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="142" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="143" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="144" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="145" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="146" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="147" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="148" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="149" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="150" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="151" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="152" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="153" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="154" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="155" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="156" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="158" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="160" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="161" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="162" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="163" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="164" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="165" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="166" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="167" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="168" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="169" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="170" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="171" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="172" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="173" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="174" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="175" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="176" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="177" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="178" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="179" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="180" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="181" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="182" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="183" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="184" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="185" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="186" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="187" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="188" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="189" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="190" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="191" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="192" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="193" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="194" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="195" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="196" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="197" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="198" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="199" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="200" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="201" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="202" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="203" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="204" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="205" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="206" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="207" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="208" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="209" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="210" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="211" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="212" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="213" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="214" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="215" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="216" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="217" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="218" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="219" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="220" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41025,233 +41161,233 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D2C61C-9C8B-4C7F-B613-73964E2DE478}">
   <dimension ref="A1:A220"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="73" width="3.375" customWidth="1"/>
+    <col min="1" max="73" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="32" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="37" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="38" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="39" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="40" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="41" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="42" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="43" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="44" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="45" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="46" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="47" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="48" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="49" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="50" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="51" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="52" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="53" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="54" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="55" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="56" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="57" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="58" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="59" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="60" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="61" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="62" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="63" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="64" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="65" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="66" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="67" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="68" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="69" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="70" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="71" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="72" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="73" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="74" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="75" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="76" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="77" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="78" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="79" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="80" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="81" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="82" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="83" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="84" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="85" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="86" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="87" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="88" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="89" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="90" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="91" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="92" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="93" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="94" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="95" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="96" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="97" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="98" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="99" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="100" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="101" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="102" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="103" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="104" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="105" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="106" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="107" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="108" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="109" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="110" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="112" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="113" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="114" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="115" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="116" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="117" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="118" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="119" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="120" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="121" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="122" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="123" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="124" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="125" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="126" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="127" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="128" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="129" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="130" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="131" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="132" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="133" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="134" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="135" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="136" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="137" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="138" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="139" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="140" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="141" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="142" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="143" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="144" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="145" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="146" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="147" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="148" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="149" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="150" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="151" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="152" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="153" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="154" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="155" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="156" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="158" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="160" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="161" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="162" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="163" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="164" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="165" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="166" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="167" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="168" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="169" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="170" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="171" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="172" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="173" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="174" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="175" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="176" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="177" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="178" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="179" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="180" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="181" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="182" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="183" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="184" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="185" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="186" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="187" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="188" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="189" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="190" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="191" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="192" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="193" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="194" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="195" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="196" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="197" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="198" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="199" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="200" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="201" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="202" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="203" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="204" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="205" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="206" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="207" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="208" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="209" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="210" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="211" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="212" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="213" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="214" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="215" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="216" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="217" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="218" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="219" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="220" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41263,235 +41399,233 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B532659-9E4A-472F-83BD-A68C39CE5409}">
   <dimension ref="A1:A220"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="73" width="3.375" customWidth="1"/>
+    <col min="1" max="73" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="32" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="37" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="38" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="39" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="40" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="41" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="42" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="43" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="44" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="45" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="46" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="47" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="48" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="49" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="50" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="51" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="52" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="53" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="54" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="55" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="56" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="57" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="58" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="59" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="60" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="61" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="62" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="63" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="64" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="65" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="66" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="67" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="68" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="69" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="70" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="71" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="72" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="73" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="74" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="75" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="76" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="77" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="78" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="79" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="80" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="81" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="82" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="83" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="84" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="85" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="86" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="87" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="88" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="89" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="90" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="91" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="92" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="93" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="94" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="95" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="96" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="97" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="98" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="99" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="100" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="101" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="102" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="103" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="104" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="105" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="106" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="107" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="108" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="109" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="110" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="112" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="113" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="114" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="115" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="116" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="117" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="118" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="119" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="120" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="121" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="122" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="123" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="124" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="125" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="126" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="127" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="128" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="129" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="130" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="131" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="132" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="133" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="134" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="135" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="136" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="137" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="138" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="139" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="140" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="141" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="142" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="143" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="144" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="145" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="146" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="147" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="148" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="149" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="150" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="151" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="152" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="153" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="154" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="155" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="156" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="158" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="160" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="161" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="162" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="163" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="164" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="165" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="166" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="167" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="168" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="169" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="170" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="171" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="172" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="173" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="174" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="175" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="176" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="177" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="178" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="179" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="180" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="181" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="182" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="183" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="184" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="185" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="186" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="187" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="188" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="189" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="190" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="191" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="192" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="193" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="194" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="195" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="196" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="197" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="198" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="199" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="200" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="201" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="202" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="203" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="204" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="205" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="206" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="207" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="208" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="209" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="210" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="211" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="212" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="213" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="214" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="215" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="216" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="217" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="218" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="219" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="220" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41503,235 +41637,233 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26656DBF-3022-4298-9AF7-740E4C05C574}">
   <dimension ref="A1:A220"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="73" width="3.375" customWidth="1"/>
+    <col min="1" max="73" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="32" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="37" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="38" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="39" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="40" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="41" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="42" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="43" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="44" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="45" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="46" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="47" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="48" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="49" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="50" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="51" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="52" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="53" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="54" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="55" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="56" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="57" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="58" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="59" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="60" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="61" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="62" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="63" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="64" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="65" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="66" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="67" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="68" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="69" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="70" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="71" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="72" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="73" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="74" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="75" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="76" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="77" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="78" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="79" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="80" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="81" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="82" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="83" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="84" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="85" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="86" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="87" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="88" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="89" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="90" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="91" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="92" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="93" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="94" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="95" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="96" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="97" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="98" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="99" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="100" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="101" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="102" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="103" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="104" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="105" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="106" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="107" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="108" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="109" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="110" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="112" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="113" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="114" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="115" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="116" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="117" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="118" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="119" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="120" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="121" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="122" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="123" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="124" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="125" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="126" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="127" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="128" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="129" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="130" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="131" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="132" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="133" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="134" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="135" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="136" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="137" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="138" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="139" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="140" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="141" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="142" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="143" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="144" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="145" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="146" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="147" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="148" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="149" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="150" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="151" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="152" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="153" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="154" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="155" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="156" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="158" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="160" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="161" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="162" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="163" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="164" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="165" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="166" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="167" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="168" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="169" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="170" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="171" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="172" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="173" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="174" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="175" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="176" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="177" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="178" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="179" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="180" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="181" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="182" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="183" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="184" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="185" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="186" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="187" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="188" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="189" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="190" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="191" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="192" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="193" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="194" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="195" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="196" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="197" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="198" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="199" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="200" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="201" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="202" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="203" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="204" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="205" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="206" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="207" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="208" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="209" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="210" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="211" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="212" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="213" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="214" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="215" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="216" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="217" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="218" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="219" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="220" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41743,233 +41875,233 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64FABC6-C5B7-4CE1-B7C4-9B9B5EEEBCBC}">
   <dimension ref="A1:A220"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="73" width="3.375" customWidth="1"/>
+    <col min="1" max="73" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="27" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="23" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="24" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="25" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="32" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="33" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="34" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="37" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="38" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="39" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="40" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="41" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="42" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="43" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="44" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="45" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="46" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="47" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="48" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="49" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="50" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="51" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="52" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="53" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="54" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="55" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="56" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="57" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="58" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="59" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="60" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="61" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="62" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="63" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="64" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="65" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="66" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="67" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="68" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="69" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="70" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="71" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="72" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="73" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="74" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="75" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="76" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="77" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="78" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="79" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="80" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="81" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="82" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="83" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="84" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="85" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="86" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="87" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="88" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="89" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="90" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="91" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="92" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="93" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="94" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="95" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="96" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="97" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="98" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="99" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="100" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="101" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="102" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="103" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="104" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="105" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="106" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="107" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="108" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="109" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="110" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="111" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="112" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="113" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="114" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="115" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="116" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="117" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="118" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="119" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="120" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="121" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="122" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="123" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="124" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="125" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="126" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="127" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="128" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="129" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="130" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="131" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="132" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="133" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="134" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="135" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="136" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="137" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="138" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="139" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="140" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="141" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="142" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="143" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="144" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="145" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="146" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="147" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="148" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="149" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="150" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="151" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="152" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="153" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="154" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="155" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="156" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="157" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="158" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="159" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="160" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="161" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="162" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="163" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="164" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="165" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="166" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="167" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="168" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="169" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="170" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="171" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="172" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="173" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="174" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="175" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="176" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="177" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="178" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="179" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="180" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="181" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="182" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="183" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="184" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="185" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="186" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="187" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="188" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="189" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="190" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="191" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="192" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="193" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="194" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="195" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="196" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="197" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="198" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="199" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="200" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="201" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="202" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="203" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="204" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="205" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="206" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="207" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="208" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="209" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="210" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="211" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="212" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="213" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="214" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="215" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="216" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="217" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="218" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="219" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="220" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
